--- a/main/Timing PIDs.xlsx
+++ b/main/Timing PIDs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24617"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEA09BC6-E024-4219-B10E-D9F5C2C64DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30758688-EA24-4055-A883-ECC40EDA0D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="430">
   <si>
     <t>Platform</t>
   </si>
@@ -44,7 +44,7 @@
     <t>Internal name</t>
   </si>
   <si>
-    <t>Node Type</t>
+    <t>Node-Type</t>
   </si>
   <si>
     <t>OS</t>
@@ -143,871 +143,871 @@
     <t>NCS-55A2-MOD-SE-S</t>
   </si>
   <si>
+    <t>Peyto | SE (ctemp)</t>
+  </si>
+  <si>
+    <t>Jericho+ | BCM88681</t>
+  </si>
+  <si>
+    <t>Trimble</t>
+  </si>
+  <si>
+    <t>EDCS-11601538</t>
+  </si>
+  <si>
+    <t>NCS-55A2-MOD-SL</t>
+  </si>
+  <si>
+    <t>Peyto | non-SE (ctemp)</t>
+  </si>
+  <si>
+    <t>NCS-55A2-MOD-HD-S</t>
+  </si>
+  <si>
+    <t>Peyto | HD (itemp)</t>
+  </si>
+  <si>
+    <t>NCS-55A2-MOD-HX-S</t>
+  </si>
+  <si>
+    <t>Peyto | (itemp Conformal)</t>
+  </si>
+  <si>
+    <t>NC55A2-MOD-SE-H-S</t>
+  </si>
+  <si>
+    <t>Peyto | (itemp)</t>
+  </si>
+  <si>
+    <t>NCS-55A1-24H</t>
+  </si>
+  <si>
+    <t>Pyke</t>
+  </si>
+  <si>
+    <t>EDCS-21334192</t>
+  </si>
+  <si>
+    <t>NCS-55A1-36H-S</t>
+  </si>
+  <si>
+    <t>Old Castle |  CR</t>
+  </si>
+  <si>
+    <t>Jericho+ | BCM88683</t>
+  </si>
+  <si>
+    <t>EDCS-1563746</t>
+  </si>
+  <si>
+    <t>NCS-55A1-36H-SE-S</t>
+  </si>
+  <si>
+    <t>Old Castle</t>
+  </si>
+  <si>
+    <t>NCS-5501-SE</t>
+  </si>
+  <si>
+    <t>Turin-SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qumran-MX | BCM88375 </t>
+  </si>
+  <si>
+    <t>EDCS-1497433</t>
+  </si>
+  <si>
+    <t>NC55-RP-E</t>
+  </si>
+  <si>
+    <t>RP-E</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>ZL8100</t>
+  </si>
+  <si>
+    <t>EDCS-11367031</t>
+  </si>
+  <si>
+    <t>NC55-RP2-E</t>
+  </si>
+  <si>
+    <t>RP2-E</t>
+  </si>
+  <si>
+    <t>EDCS-15028896</t>
+  </si>
+  <si>
+    <t>N540X-ACC-SYS</t>
+  </si>
+  <si>
+    <t>Tortin | 16G Conformal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qumran-AX | BCM88470 </t>
+  </si>
+  <si>
+    <t>EDCS-11376270</t>
+  </si>
+  <si>
+    <t>N540-ACC-SYS</t>
+  </si>
+  <si>
+    <t>Tortin | 16G</t>
+  </si>
+  <si>
+    <t>N540-24Z8Q2C-M</t>
+  </si>
+  <si>
+    <t>Tortin | 32G</t>
+  </si>
+  <si>
+    <t>N540X-24Z8Q2C-M</t>
+  </si>
+  <si>
+    <t>Tortin | 32G Conformal</t>
+  </si>
+  <si>
+    <t>NCS-57C3-MOD-SYS</t>
+  </si>
+  <si>
+    <t>Eyrie | Base</t>
+  </si>
+  <si>
+    <t>Jericho2C | BCM88802</t>
+  </si>
+  <si>
+    <t>Class C</t>
+  </si>
+  <si>
+    <t>Ublox</t>
+  </si>
+  <si>
+    <t>EDCS-18647737</t>
+  </si>
+  <si>
+    <t>EDCS-19565433</t>
+  </si>
+  <si>
+    <t>NCS-57C3-MODS-SYS</t>
+  </si>
+  <si>
+    <t>Eyrie | Scale</t>
+  </si>
+  <si>
+    <t>NC55-MOD-AS</t>
+  </si>
+  <si>
+    <t>Potenza-MOD</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>EDCS-11589192</t>
+  </si>
+  <si>
+    <t>NC55-MOD-A-SE-S</t>
+  </si>
+  <si>
+    <t>Potenza-MOD-SE</t>
+  </si>
+  <si>
+    <t>NC55-36X100G-A-SE</t>
+  </si>
+  <si>
+    <t>Potenza 100</t>
+  </si>
+  <si>
+    <t>EDCS-1560812</t>
+  </si>
+  <si>
+    <t>NC57-36H3D-S-SE</t>
+  </si>
+  <si>
+    <t>Vigor 100SE</t>
+  </si>
+  <si>
+    <t>EDCS-18607687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC57-24DD </t>
+  </si>
+  <si>
+    <t>Vigor 400 | 24 port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jericho2 | BCM88690 </t>
+  </si>
+  <si>
+    <t>EDCS-12249189</t>
+  </si>
+  <si>
+    <t>NC57-18DD-SE</t>
+  </si>
+  <si>
+    <t>Vigor 400 | 18 port</t>
+  </si>
+  <si>
+    <t>Class B, Class C</t>
+  </si>
+  <si>
+    <t>NC57-36H6D-S</t>
+  </si>
+  <si>
+    <t>Vigor Base</t>
+  </si>
+  <si>
+    <t>EDCS-16918408</t>
+  </si>
+  <si>
+    <t>EDCS-17870701</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Vigor LS</t>
+  </si>
+  <si>
+    <t>NC57-MOD-S</t>
+  </si>
+  <si>
+    <t>Vigor Mod</t>
+  </si>
+  <si>
+    <t>EDCS-19896454</t>
+  </si>
+  <si>
+    <t>NC55-32T16Q4H-A</t>
+  </si>
+  <si>
+    <t>Potenza 10C</t>
+  </si>
+  <si>
+    <t>EDCS-13525732</t>
+  </si>
+  <si>
+    <t>NC55-32T16Q4H-AT</t>
+  </si>
+  <si>
+    <t>NC55-MPA-12T-S</t>
+  </si>
+  <si>
+    <t>Crowfoot</t>
+  </si>
+  <si>
+    <t>MPA</t>
+  </si>
+  <si>
+    <t>NC55-MPA-1TH2H-S</t>
+  </si>
+  <si>
+    <t>Rainbow</t>
+  </si>
+  <si>
+    <t>NC55-MPA-2TH-S</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>NC55-MPA-4H-S</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>NC57-MPA-12F-S</t>
+  </si>
+  <si>
+    <t>Bearfoot</t>
+  </si>
+  <si>
+    <t>EDCS-11720248</t>
+  </si>
+  <si>
+    <t>NC57-MPA-2D4H-S</t>
+  </si>
+  <si>
+    <t>Buzzard</t>
+  </si>
+  <si>
+    <t>NC57-MPA-1FH1D-S</t>
+  </si>
+  <si>
+    <t>Wingbow</t>
+  </si>
+  <si>
+    <t>EDCS-22335124</t>
+  </si>
+  <si>
+    <t>EDCS-22555618</t>
+  </si>
+  <si>
+    <t>NCS540L</t>
+  </si>
+  <si>
+    <t>Bigbend</t>
+  </si>
+  <si>
+    <t>N540X-12Z16G-SYS-A</t>
+  </si>
+  <si>
+    <t>Acadia | AC</t>
+  </si>
+  <si>
+    <t>Lindt</t>
+  </si>
+  <si>
+    <t>Qumran-AX | 160G</t>
+  </si>
+  <si>
+    <t>ZL81000</t>
+  </si>
+  <si>
+    <t>EDCS-13243647</t>
+  </si>
+  <si>
+    <t>EDCS-11902318</t>
+  </si>
+  <si>
+    <t>N540X-12Z16G-SYS-D</t>
+  </si>
+  <si>
+    <t>Acadia | DC</t>
+  </si>
+  <si>
+    <t>N540-12Z20G-SYS-A</t>
+  </si>
+  <si>
+    <t>Denali | AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EDCS-15041569</t>
+  </si>
+  <si>
+    <t>N540-12Z20G-SYS-D</t>
+  </si>
+  <si>
+    <t>Denali | DC</t>
+  </si>
+  <si>
+    <t>N540-28Z4C-SYS-A</t>
+  </si>
+  <si>
+    <t>Craterlake | AC</t>
+  </si>
+  <si>
+    <t>Qumran-AX | 300</t>
+  </si>
+  <si>
+    <t>EDCS-12220496</t>
+  </si>
+  <si>
+    <t>N540-28Z4C-SYS-D</t>
+  </si>
+  <si>
+    <t>Craterlake | DC</t>
+  </si>
+  <si>
+    <t>N540X-16Z4G8Q2C-A</t>
+  </si>
+  <si>
+    <t>Everglades | AC</t>
+  </si>
+  <si>
+    <t>EDCS-11609460</t>
+  </si>
+  <si>
+    <t>N540X-16Z4G8Q2C-D</t>
+  </si>
+  <si>
+    <t>Everglades | DC</t>
+  </si>
+  <si>
+    <t>NCS540</t>
+  </si>
+  <si>
+    <t>Felidae</t>
+  </si>
+  <si>
+    <t>N540-FH-CSR-SYS</t>
+  </si>
+  <si>
+    <t>Jaguar</t>
+  </si>
+  <si>
+    <t>N540-FH-AGG-SYS</t>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>Arches</t>
+  </si>
+  <si>
+    <t>N540-24Q8L2DD-SYS</t>
+  </si>
+  <si>
+    <t>Sanddunes</t>
+  </si>
+  <si>
+    <t>NCS540X</t>
+  </si>
+  <si>
+    <t>Darwin</t>
+  </si>
+  <si>
+    <t>N540X-6Z18G-SYS-A</t>
+  </si>
+  <si>
+    <t>Beagle | AC</t>
+  </si>
+  <si>
+    <t>EDCS-17883829</t>
+  </si>
+  <si>
+    <t>N540X-6Z18G-SYS-D</t>
+  </si>
+  <si>
+    <t>Beagle | DC</t>
+  </si>
+  <si>
+    <t>N540X-8Z16G-SYS-A</t>
+  </si>
+  <si>
+    <t>Galapagos | AC</t>
+  </si>
+  <si>
+    <t>N540X-8Z16G-SYS-D</t>
+  </si>
+  <si>
+    <t>Galapagos | DC</t>
+  </si>
+  <si>
+    <t>N540X-4Z14G2Q-D</t>
+  </si>
+  <si>
+    <t>Fitzroy | AC</t>
+  </si>
+  <si>
+    <t>Qumran-UX | BCM88270</t>
+  </si>
+  <si>
+    <t>N540X-4Z14G2Q-A</t>
+  </si>
+  <si>
+    <t>Fitzroy DC</t>
+  </si>
+  <si>
+    <t>N540-6Z14S-SYS-D</t>
+  </si>
+  <si>
+    <t>Meerkat | DC</t>
+  </si>
+  <si>
+    <t>Qumran-UX | BCM88272</t>
+  </si>
+  <si>
+    <t>N540-6Z14S-SYS-A</t>
+  </si>
+  <si>
+    <t>Meerkat | AC</t>
+  </si>
+  <si>
+    <t>NCS-57B1-6D24-SYS</t>
+  </si>
+  <si>
+    <t>Shadow tower</t>
+  </si>
+  <si>
+    <t>NCS-57B1-5DSE-SYS</t>
+  </si>
+  <si>
+    <t>Shadow tower | SE</t>
+  </si>
+  <si>
+    <t>NCS-57C1-48Q6-SYS</t>
+  </si>
+  <si>
+    <t>Twins</t>
+  </si>
+  <si>
+    <t>NCS-57D2-18DD-SYS</t>
+  </si>
+  <si>
+    <t>Castleblack</t>
+  </si>
+  <si>
+    <t>Sirius</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>RSP4</t>
+  </si>
+  <si>
+    <t>Port range</t>
+  </si>
+  <si>
+    <t>Speeds</t>
+  </si>
+  <si>
+    <t>Breakout</t>
+  </si>
+  <si>
+    <t>PHY</t>
+  </si>
+  <si>
+    <t>PHY mode</t>
+  </si>
+  <si>
+    <t>Macsec</t>
+  </si>
+  <si>
+    <t>Synce clock recovery</t>
+  </si>
+  <si>
+    <t>Timestamper</t>
+  </si>
+  <si>
+    <t>PTP performance</t>
+  </si>
+  <si>
+    <t>Other characteristics</t>
+  </si>
+  <si>
+    <t>0-47</t>
+  </si>
+  <si>
+    <t>25G,10G</t>
+  </si>
+  <si>
+    <t>1G</t>
+  </si>
+  <si>
+    <t>Not supported</t>
+  </si>
+  <si>
+    <t>48-53</t>
+  </si>
+  <si>
+    <t>100G,40G</t>
+  </si>
+  <si>
+    <t>4x25G</t>
+  </si>
+  <si>
+    <t>MV88EC808 | Marvell</t>
+  </si>
+  <si>
+    <t>Re-timer</t>
+  </si>
+  <si>
+    <t>0-23</t>
+  </si>
+  <si>
+    <t>1G, 10G</t>
+  </si>
+  <si>
+    <t>24-31</t>
+  </si>
+  <si>
+    <t>10G,25G</t>
+  </si>
+  <si>
+    <t>32-47</t>
+  </si>
+  <si>
+    <t>4x25G | Master mode only</t>
+  </si>
+  <si>
+    <t>1G,10G,25G</t>
+  </si>
+  <si>
+    <t>1G,10G</t>
+  </si>
+  <si>
+    <t>24-39</t>
+  </si>
+  <si>
+    <t>0-35</t>
+  </si>
+  <si>
+    <t>4x25,4x10 | Master mode only</t>
+  </si>
+  <si>
+    <t>ES200 | APM</t>
+  </si>
+  <si>
+    <t>PHY | A2 version only</t>
+  </si>
+  <si>
+    <t>0-15</t>
+  </si>
+  <si>
+    <t>16-39</t>
+  </si>
+  <si>
+    <t>BCM82780</t>
+  </si>
+  <si>
+    <t>40-43</t>
+  </si>
+  <si>
+    <t>4x10 | Master mode only</t>
+  </si>
+  <si>
+    <t>BCM82381</t>
+  </si>
+  <si>
+    <t>NPu</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>1G | copper</t>
+  </si>
+  <si>
+    <t>VSC8582</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t>1G | fiber</t>
+  </si>
+  <si>
+    <t>Not qualified</t>
+  </si>
+  <si>
+    <t>25G,10G,1G</t>
+  </si>
+  <si>
+    <t>Tortin-16G Conformal</t>
+  </si>
+  <si>
+    <t>32-33</t>
+  </si>
+  <si>
+    <t>4x25G,4x10G | 4x25G:Master, 4x10G:Slave</t>
+  </si>
+  <si>
+    <t>0-7</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>Eyrie |  Base</t>
+  </si>
+  <si>
+    <t>MACsec</t>
+  </si>
+  <si>
+    <t>8-23</t>
+  </si>
+  <si>
+    <t>48-55</t>
+  </si>
+  <si>
+    <t>24-27</t>
+  </si>
+  <si>
+    <t>28-43</t>
+  </si>
+  <si>
+    <t>10G,2G</t>
+  </si>
+  <si>
+    <t>44-51</t>
+  </si>
+  <si>
+    <t>&lt;Potenza MOD-AS&gt;</t>
+  </si>
+  <si>
+    <t>&lt;vigor-100SE&gt;</t>
+  </si>
+  <si>
+    <t>400G,100G,40G</t>
+  </si>
+  <si>
+    <t>CDR5 retimer</t>
+  </si>
+  <si>
+    <t>0-17</t>
+  </si>
+  <si>
+    <t>MetaDX1</t>
+  </si>
+  <si>
+    <t>24-24</t>
+  </si>
+  <si>
+    <t>400G</t>
+  </si>
+  <si>
+    <t>24-25</t>
+  </si>
+  <si>
+    <t>26-26</t>
+  </si>
+  <si>
+    <t>26-27</t>
+  </si>
+  <si>
+    <t>28-28</t>
+  </si>
+  <si>
+    <t>28-29</t>
+  </si>
+  <si>
+    <t>30-30</t>
+  </si>
+  <si>
+    <t>30-31</t>
+  </si>
+  <si>
+    <t>32-32</t>
+  </si>
+  <si>
+    <t>34-34</t>
+  </si>
+  <si>
+    <t>34-35</t>
+  </si>
+  <si>
+    <t>&lt;Vigor-LS&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Vigor-MOD&gt;</t>
+  </si>
+  <si>
+    <t>0-31</t>
+  </si>
+  <si>
+    <t>VSC8258</t>
+  </si>
+  <si>
+    <t>48-51</t>
+  </si>
+  <si>
+    <t>0-11</t>
+  </si>
+  <si>
+    <t>10G</t>
+  </si>
+  <si>
+    <t>X120 | APM</t>
+  </si>
+  <si>
+    <t>200G,100G</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>50G</t>
+  </si>
+  <si>
+    <t>NPU,PHY | TC mode in PHY</t>
+  </si>
+  <si>
+    <t>MediaTek</t>
+  </si>
+  <si>
+    <t>NPU,PHY | PHY timestamping with Eyrie,Vigor-MOD. NPU timestamping with legacy cards</t>
+  </si>
+  <si>
+    <t>CFP2-DCO port</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>1G | Copper</t>
+  </si>
+  <si>
+    <t>BCM54140</t>
+  </si>
+  <si>
+    <t>4-15</t>
+  </si>
+  <si>
+    <t>16-19</t>
+  </si>
+  <si>
+    <t>20-27</t>
+  </si>
+  <si>
+    <t>0-19</t>
+  </si>
+  <si>
+    <t>20-31</t>
+  </si>
+  <si>
+    <t>1G/10G</t>
+  </si>
+  <si>
+    <t>0-27</t>
+  </si>
+  <si>
+    <t>28-31</t>
+  </si>
+  <si>
+    <t>4-19</t>
+  </si>
+  <si>
+    <t>Software board type</t>
+  </si>
+  <si>
+    <t>Servo version</t>
+  </si>
+  <si>
+    <t>Master PLL</t>
+  </si>
+  <si>
+    <t>Other PLLs</t>
+  </si>
+  <si>
+    <t>Timing FPGA1 spec</t>
+  </si>
+  <si>
+    <t>Timing FPGA2 spec</t>
+  </si>
+  <si>
+    <t>BOARD_TYPE_BIFROST_T_RP</t>
+  </si>
+  <si>
+    <t>ZL30702</t>
+  </si>
+  <si>
+    <t>EDCS-15676955 | EDCS-13259086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOARD_TYPE_TURIN_CR_RP </t>
+  </si>
+  <si>
+    <t>Turin-CR macsec</t>
+  </si>
+  <si>
+    <t>BOARD_TYPE_TURIN_CR_MACSEC_RP</t>
+  </si>
+  <si>
     <t>Peyto SE (ctemp)</t>
-  </si>
-  <si>
-    <t>Jericho+ | BCM88681</t>
-  </si>
-  <si>
-    <t>Trimble</t>
-  </si>
-  <si>
-    <t>EDCS-11601538</t>
-  </si>
-  <si>
-    <t>NCS-55A2-MOD-SL</t>
-  </si>
-  <si>
-    <t>Peyto | non-SE (ctemp)</t>
-  </si>
-  <si>
-    <t>NCS-55A2-MOD-HD-S</t>
-  </si>
-  <si>
-    <t>Peyto | HD (itemp)</t>
-  </si>
-  <si>
-    <t>NCS-55A2-MOD-HX-S</t>
-  </si>
-  <si>
-    <t>Peyto | (itemp Conformal)</t>
-  </si>
-  <si>
-    <t>NC55A2-MOD-SE-H-S</t>
-  </si>
-  <si>
-    <t>Peyto | (itemp)</t>
-  </si>
-  <si>
-    <t>NCS-55A1-24H</t>
-  </si>
-  <si>
-    <t>Pyke</t>
-  </si>
-  <si>
-    <t>EDCS-21334192</t>
-  </si>
-  <si>
-    <t>NCS-55A1-36H-S</t>
-  </si>
-  <si>
-    <t>Old Castle |  CR</t>
-  </si>
-  <si>
-    <t>Jericho+ | BCM88683</t>
-  </si>
-  <si>
-    <t>EDCS-1563746</t>
-  </si>
-  <si>
-    <t>NCS-55A1-36H-SE-S</t>
-  </si>
-  <si>
-    <t>Old Castle</t>
-  </si>
-  <si>
-    <t>NCS-5501-SE</t>
-  </si>
-  <si>
-    <t>Turin-SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qumran-MX | BCM88375 </t>
-  </si>
-  <si>
-    <t>EDCS-1497433</t>
-  </si>
-  <si>
-    <t>NC55-RP-E</t>
-  </si>
-  <si>
-    <t>RP-E</t>
-  </si>
-  <si>
-    <t>RP</t>
-  </si>
-  <si>
-    <t>ZL8100</t>
-  </si>
-  <si>
-    <t>EDCS-11367031</t>
-  </si>
-  <si>
-    <t>NC55-RP2-E</t>
-  </si>
-  <si>
-    <t>RP2-E</t>
-  </si>
-  <si>
-    <t>EDCS-15028896</t>
-  </si>
-  <si>
-    <t>N540X-ACC-SYS</t>
-  </si>
-  <si>
-    <t>Tortin | 16G Conformal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qumran-AX | BCM88470 </t>
-  </si>
-  <si>
-    <t>EDCS-11376270</t>
-  </si>
-  <si>
-    <t>N540-ACC-SYS</t>
-  </si>
-  <si>
-    <t>Tortin | 16G</t>
-  </si>
-  <si>
-    <t>N540-24Z8Q2C-M</t>
-  </si>
-  <si>
-    <t>Tortin | 32G</t>
-  </si>
-  <si>
-    <t>N540X-24Z8Q2C-M</t>
-  </si>
-  <si>
-    <t>Tortin | 32G Conformal</t>
-  </si>
-  <si>
-    <t>NCS-57C3-MOD-SYS</t>
-  </si>
-  <si>
-    <t>Eyrie | Base</t>
-  </si>
-  <si>
-    <t>Jericho2C | BCM88802</t>
-  </si>
-  <si>
-    <t>Class C</t>
-  </si>
-  <si>
-    <t>Ublox</t>
-  </si>
-  <si>
-    <t>EDCS-18647737</t>
-  </si>
-  <si>
-    <t>EDCS-19565433</t>
-  </si>
-  <si>
-    <t>NCS-57C3-MODS-SYS</t>
-  </si>
-  <si>
-    <t>Eyrie | Scale</t>
-  </si>
-  <si>
-    <t>NC55-MOD-AS</t>
-  </si>
-  <si>
-    <t>Potenza-MOD</t>
-  </si>
-  <si>
-    <t>LC</t>
-  </si>
-  <si>
-    <t>EDCS-11589192</t>
-  </si>
-  <si>
-    <t>NC55-MOD-A-SE-S</t>
-  </si>
-  <si>
-    <t>Potenza-MOD-SE</t>
-  </si>
-  <si>
-    <t>NC55-36X100G-A-SE</t>
-  </si>
-  <si>
-    <t>Potenza 100</t>
-  </si>
-  <si>
-    <t>EDCS-1560812</t>
-  </si>
-  <si>
-    <t>NC57-36H3D-S-SE</t>
-  </si>
-  <si>
-    <t>Vigor 100SE</t>
-  </si>
-  <si>
-    <t>EDCS-18607687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC57-24DD </t>
-  </si>
-  <si>
-    <t>Vigor 400 | 24 port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jericho2 | BCM88690 </t>
-  </si>
-  <si>
-    <t>EDCS-12249189</t>
-  </si>
-  <si>
-    <t>NC57-18DD-SE</t>
-  </si>
-  <si>
-    <t>Vigor 400 | 18 port</t>
-  </si>
-  <si>
-    <t>Class B, Class C</t>
-  </si>
-  <si>
-    <t>NC57-36H6D-S</t>
-  </si>
-  <si>
-    <t>Vigor Base</t>
-  </si>
-  <si>
-    <t>EDCS-16918408</t>
-  </si>
-  <si>
-    <t>EDCS-17870701</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>Vigor LS</t>
-  </si>
-  <si>
-    <t>NC57-MOD-S</t>
-  </si>
-  <si>
-    <t>Vigor Mod</t>
-  </si>
-  <si>
-    <t>EDCS-19896454</t>
-  </si>
-  <si>
-    <t>NC55-32T16Q4H-A</t>
-  </si>
-  <si>
-    <t>Potenza 10C</t>
-  </si>
-  <si>
-    <t>EDCS-13525732</t>
-  </si>
-  <si>
-    <t>NC55-32T16Q4H-AT</t>
-  </si>
-  <si>
-    <t>NC55-MPA-12T-S</t>
-  </si>
-  <si>
-    <t>Crowfoot</t>
-  </si>
-  <si>
-    <t>MPA</t>
-  </si>
-  <si>
-    <t>NC55-MPA-1TH2H-S</t>
-  </si>
-  <si>
-    <t>Rainbow</t>
-  </si>
-  <si>
-    <t>NC55-MPA-2TH-S</t>
-  </si>
-  <si>
-    <t>Bow</t>
-  </si>
-  <si>
-    <t>NC55-MPA-4H-S</t>
-  </si>
-  <si>
-    <t>Columbia</t>
-  </si>
-  <si>
-    <t>NC57-MPA-12F-S</t>
-  </si>
-  <si>
-    <t>Bearfoot</t>
-  </si>
-  <si>
-    <t>EDCS-11720248</t>
-  </si>
-  <si>
-    <t>NC57-MPA-2D4H-S</t>
-  </si>
-  <si>
-    <t>Buzzard</t>
-  </si>
-  <si>
-    <t>NC57-MPA-1FH1D-S</t>
-  </si>
-  <si>
-    <t>Wingbow</t>
-  </si>
-  <si>
-    <t>EDCS-22335124</t>
-  </si>
-  <si>
-    <t>EDCS-22555618</t>
-  </si>
-  <si>
-    <t>NCS540L</t>
-  </si>
-  <si>
-    <t>Bigbend</t>
-  </si>
-  <si>
-    <t>N540X-12Z16G-SYS-A</t>
-  </si>
-  <si>
-    <t>Acadia | AC</t>
-  </si>
-  <si>
-    <t>Lindt</t>
-  </si>
-  <si>
-    <t>Qumran-AX | 160G</t>
-  </si>
-  <si>
-    <t>ZL81000</t>
-  </si>
-  <si>
-    <t>EDCS-13243647</t>
-  </si>
-  <si>
-    <t>EDCS-11902318</t>
-  </si>
-  <si>
-    <t>N540X-12Z16G-SYS-D</t>
-  </si>
-  <si>
-    <t>Acadia | DC</t>
-  </si>
-  <si>
-    <t>N540-12Z20G-SYS-A</t>
-  </si>
-  <si>
-    <t>Denali | AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EDCS-15041569</t>
-  </si>
-  <si>
-    <t>N540-12Z20G-SYS-D</t>
-  </si>
-  <si>
-    <t>Denali | DC</t>
-  </si>
-  <si>
-    <t>N540-28Z4C-SYS-A</t>
-  </si>
-  <si>
-    <t>Craterlake | AC</t>
-  </si>
-  <si>
-    <t>Qumran-AX | 300</t>
-  </si>
-  <si>
-    <t>EDCS-12220496</t>
-  </si>
-  <si>
-    <t>N540-28Z4C-SYS-D</t>
-  </si>
-  <si>
-    <t>Craterlake | DC</t>
-  </si>
-  <si>
-    <t>N540X-16Z4G8Q2C-A</t>
-  </si>
-  <si>
-    <t>Everglades | AC</t>
-  </si>
-  <si>
-    <t>EDCS-11609460</t>
-  </si>
-  <si>
-    <t>N540X-16Z4G8Q2C-D</t>
-  </si>
-  <si>
-    <t>Everglades | DC</t>
-  </si>
-  <si>
-    <t>NCS540</t>
-  </si>
-  <si>
-    <t>Felidae</t>
-  </si>
-  <si>
-    <t>N540-FH-CSR-SYS</t>
-  </si>
-  <si>
-    <t>Jaguar</t>
-  </si>
-  <si>
-    <t>N540-FH-AGG-SYS</t>
-  </si>
-  <si>
-    <t>Lion</t>
-  </si>
-  <si>
-    <t>Arches</t>
-  </si>
-  <si>
-    <t>N540-24Q8L2DD-SYS</t>
-  </si>
-  <si>
-    <t>Sanddunes</t>
-  </si>
-  <si>
-    <t>NCS540X</t>
-  </si>
-  <si>
-    <t>Darwin</t>
-  </si>
-  <si>
-    <t>N540X-6Z18G-SYS-A</t>
-  </si>
-  <si>
-    <t>Beagle AC</t>
-  </si>
-  <si>
-    <t>EDCS-17883829</t>
-  </si>
-  <si>
-    <t>N540X-6Z18G-SYS-D</t>
-  </si>
-  <si>
-    <t>Beagle DC</t>
-  </si>
-  <si>
-    <t>N540X-8Z16G-SYS-A</t>
-  </si>
-  <si>
-    <t>Galapagos AC</t>
-  </si>
-  <si>
-    <t>N540X-8Z16G-SYS-D</t>
-  </si>
-  <si>
-    <t>Galapagos DC</t>
-  </si>
-  <si>
-    <t>N540X-4Z14G2Q-D</t>
-  </si>
-  <si>
-    <t>Fitzroy AC</t>
-  </si>
-  <si>
-    <t>Qumran-UX | BCM88270</t>
-  </si>
-  <si>
-    <t>N540X-4Z14G2Q-A</t>
-  </si>
-  <si>
-    <t>Fitzroy DC</t>
-  </si>
-  <si>
-    <t>N540-6Z14S-SYS-D</t>
-  </si>
-  <si>
-    <t>Meerkat DC</t>
-  </si>
-  <si>
-    <t>Qumran-UX | BCM88272</t>
-  </si>
-  <si>
-    <t>N540-6Z14S-SYS-A</t>
-  </si>
-  <si>
-    <t>Meerkat AC</t>
-  </si>
-  <si>
-    <t>NCS-57B1-6D24-SYS</t>
-  </si>
-  <si>
-    <t>Shadow tower</t>
-  </si>
-  <si>
-    <t>NCS-57B1-5DSE-SYS</t>
-  </si>
-  <si>
-    <t>Shadow tower SE</t>
-  </si>
-  <si>
-    <t>NCS-57C1-48Q6-SYS</t>
-  </si>
-  <si>
-    <t>Twins</t>
-  </si>
-  <si>
-    <t>NCS-57D2-18DD-SYS</t>
-  </si>
-  <si>
-    <t>Castleblack</t>
-  </si>
-  <si>
-    <t>Sirius</t>
-  </si>
-  <si>
-    <t>ignore</t>
-  </si>
-  <si>
-    <t>RSP4</t>
-  </si>
-  <si>
-    <t>Port range</t>
-  </si>
-  <si>
-    <t>Speeds</t>
-  </si>
-  <si>
-    <t>Breakout</t>
-  </si>
-  <si>
-    <t>PHY</t>
-  </si>
-  <si>
-    <t>PHY mode</t>
-  </si>
-  <si>
-    <t>Macsec</t>
-  </si>
-  <si>
-    <t>Synce</t>
-  </si>
-  <si>
-    <t>Timestamper</t>
-  </si>
-  <si>
-    <t>PTP performance</t>
-  </si>
-  <si>
-    <t>Other characteristics</t>
-  </si>
-  <si>
-    <t>0-47</t>
-  </si>
-  <si>
-    <t>25G,10G</t>
-  </si>
-  <si>
-    <t>1G</t>
-  </si>
-  <si>
-    <t>Not supported</t>
-  </si>
-  <si>
-    <t>48-53</t>
-  </si>
-  <si>
-    <t>100G,40G</t>
-  </si>
-  <si>
-    <t>4x25G</t>
-  </si>
-  <si>
-    <t>MV88EC808 | Marvell</t>
-  </si>
-  <si>
-    <t>Re-timer</t>
-  </si>
-  <si>
-    <t>0-23</t>
-  </si>
-  <si>
-    <t>1G, 10G</t>
-  </si>
-  <si>
-    <t>24-31</t>
-  </si>
-  <si>
-    <t>10G,25G</t>
-  </si>
-  <si>
-    <t>32-47</t>
-  </si>
-  <si>
-    <t>4x25G | Master mode only</t>
-  </si>
-  <si>
-    <t>1G,10G,25G</t>
-  </si>
-  <si>
-    <t>1G,10G</t>
-  </si>
-  <si>
-    <t>24-39</t>
-  </si>
-  <si>
-    <t>0-35</t>
-  </si>
-  <si>
-    <t>4x25,4x10 | Master mode only</t>
-  </si>
-  <si>
-    <t>APM ES200</t>
-  </si>
-  <si>
-    <t>PHY | A2 version only</t>
-  </si>
-  <si>
-    <t>0-15</t>
-  </si>
-  <si>
-    <t>16-39</t>
-  </si>
-  <si>
-    <t>BCM82780</t>
-  </si>
-  <si>
-    <t>40-43</t>
-  </si>
-  <si>
-    <t>4x10 | Master mode only</t>
-  </si>
-  <si>
-    <t>BCM82381</t>
-  </si>
-  <si>
-    <t>NPu</t>
-  </si>
-  <si>
-    <t>0-0</t>
-  </si>
-  <si>
-    <t>1G | copper</t>
-  </si>
-  <si>
-    <t>VSC8582</t>
-  </si>
-  <si>
-    <t>PCS</t>
-  </si>
-  <si>
-    <t>1G | fiber</t>
-  </si>
-  <si>
-    <t>Not qualified</t>
-  </si>
-  <si>
-    <t>25G,10G,1G</t>
-  </si>
-  <si>
-    <t>Tortin-16G Conformal</t>
-  </si>
-  <si>
-    <t>32-33</t>
-  </si>
-  <si>
-    <t>4x25G,4x10G | 4x25G:Master, 4x10G:Slave</t>
-  </si>
-  <si>
-    <t>0-7</t>
-  </si>
-  <si>
-    <t>MAC</t>
-  </si>
-  <si>
-    <t>Eyrie |  Base</t>
-  </si>
-  <si>
-    <t>MACsec</t>
-  </si>
-  <si>
-    <t>8-23</t>
-  </si>
-  <si>
-    <t>48-55</t>
-  </si>
-  <si>
-    <t>24-27</t>
-  </si>
-  <si>
-    <t>28-43</t>
-  </si>
-  <si>
-    <t>10G,2G</t>
-  </si>
-  <si>
-    <t>44-51</t>
-  </si>
-  <si>
-    <t>&lt;Potenza MOD-AS&gt;</t>
-  </si>
-  <si>
-    <t>&lt;vigor-100SE&gt;</t>
-  </si>
-  <si>
-    <t>400G,100G,40G</t>
-  </si>
-  <si>
-    <t>CDR5 retimer</t>
-  </si>
-  <si>
-    <t>0-17</t>
-  </si>
-  <si>
-    <t>MetaDX1</t>
-  </si>
-  <si>
-    <t>24-24</t>
-  </si>
-  <si>
-    <t>400G</t>
-  </si>
-  <si>
-    <t>24-25</t>
-  </si>
-  <si>
-    <t>26-26</t>
-  </si>
-  <si>
-    <t>26-27</t>
-  </si>
-  <si>
-    <t>28-28</t>
-  </si>
-  <si>
-    <t>28-29</t>
-  </si>
-  <si>
-    <t>30-30</t>
-  </si>
-  <si>
-    <t>30-31</t>
-  </si>
-  <si>
-    <t>32-32</t>
-  </si>
-  <si>
-    <t>34-34</t>
-  </si>
-  <si>
-    <t>34-35</t>
-  </si>
-  <si>
-    <t>&lt;Vigor-LS&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Vigor-MOD&gt;</t>
-  </si>
-  <si>
-    <t>0-31</t>
-  </si>
-  <si>
-    <t>VSC8258</t>
-  </si>
-  <si>
-    <t>48-51</t>
-  </si>
-  <si>
-    <t>0-11</t>
-  </si>
-  <si>
-    <t>10G</t>
-  </si>
-  <si>
-    <t>APM X120</t>
-  </si>
-  <si>
-    <t>200G,100G</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>0-1</t>
-  </si>
-  <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>50G</t>
-  </si>
-  <si>
-    <t>NPU,PHY | TC mode in PHY</t>
-  </si>
-  <si>
-    <t>MediaTek</t>
-  </si>
-  <si>
-    <t>NPU|PHY</t>
-  </si>
-  <si>
-    <t>CFP2-DCO port</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>PHY timestamping with Eyrie, Vigor-MOD. NPU timestamping with legacy cards</t>
-  </si>
-  <si>
-    <t>1G | Copper</t>
-  </si>
-  <si>
-    <t>BCM54140</t>
-  </si>
-  <si>
-    <t>4-15</t>
-  </si>
-  <si>
-    <t>16-19</t>
-  </si>
-  <si>
-    <t>20-27</t>
-  </si>
-  <si>
-    <t>0-19</t>
-  </si>
-  <si>
-    <t>20-31</t>
-  </si>
-  <si>
-    <t>1G/10G</t>
-  </si>
-  <si>
-    <t>0-27</t>
-  </si>
-  <si>
-    <t>28-31</t>
-  </si>
-  <si>
-    <t>4-19</t>
-  </si>
-  <si>
-    <t>Software board type</t>
-  </si>
-  <si>
-    <t>Servo version</t>
-  </si>
-  <si>
-    <t>Master PLL</t>
-  </si>
-  <si>
-    <t>Other PLLs</t>
-  </si>
-  <si>
-    <t>Timing FPGA1 spec</t>
-  </si>
-  <si>
-    <t>Timing FPGA2 spec</t>
-  </si>
-  <si>
-    <t>BOARD_TYPE_BIFROST_T_RP</t>
-  </si>
-  <si>
-    <t>ZL30702</t>
-  </si>
-  <si>
-    <t>EDCS-15676955 | EDCS-13259086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOARD_TYPE_TURIN_CR_RP </t>
-  </si>
-  <si>
-    <t>Turin-CR macsec</t>
-  </si>
-  <si>
-    <t>BOARD_TYPE_TURIN_CR_MACSEC_RP</t>
   </si>
   <si>
     <t>BOARD_TYPE_PEYTO_RP</t>
@@ -1280,6 +1280,9 @@
     <t>BOARD_TYPE_ARCHES_SANDDUNES</t>
   </si>
   <si>
+    <t>Beagle AC</t>
+  </si>
+  <si>
     <t>BOARD_TYPE_DARWIN_BEAGLE_AC</t>
   </si>
   <si>
@@ -1289,28 +1292,49 @@
     <t>Ross FPGA</t>
   </si>
   <si>
+    <t>Beagle DC</t>
+  </si>
+  <si>
     <t>BOARD_TYPE_DARWIN_BEAGLE_DC</t>
   </si>
   <si>
+    <t>Galapagos AC</t>
+  </si>
+  <si>
     <t>BOARD_TYPE_DARWIN_GALAPAGOS_AC</t>
   </si>
   <si>
+    <t>Galapagos DC</t>
+  </si>
+  <si>
     <t>BOARD_TYPE_DARWIN_GALAPAGOS_DC</t>
   </si>
   <si>
+    <t>Fitzroy AC</t>
+  </si>
+  <si>
     <t>BOARD_TYPE_DARWIN_FITZROY_AC</t>
   </si>
   <si>
     <t>BOARD_TYPE_DARWIN_FITZROY_DC</t>
   </si>
   <si>
+    <t>Meerkat DC</t>
+  </si>
+  <si>
     <t>BOARD_TYPE_DARWIN_MEERKAT_AC</t>
   </si>
   <si>
+    <t>Meerkat AC</t>
+  </si>
+  <si>
     <t>BOARD_TYPE_DARWIN_MEERKAT_DC</t>
   </si>
   <si>
     <t>BOARD_TYPE_NCS5700_SHADOWTOWER</t>
+  </si>
+  <si>
+    <t>Shadow tower SE</t>
   </si>
   <si>
     <t>BOARD_TYPE_NCS5700_SHADOWTOWER_SE</t>
@@ -1828,7 +1852,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I4"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4011,8 +4035,8 @@
   <dimension ref="A1:M143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7535,9 +7559,6 @@
       <c r="K103" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="L103" s="13" t="s">
-        <v>298</v>
-      </c>
     </row>
     <row r="104" spans="1:12" s="13" customFormat="1">
       <c r="A104" s="15" t="s">
@@ -7585,13 +7606,13 @@
         <v>291</v>
       </c>
       <c r="D105" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105" s="19" t="s">
         <v>299</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F105" s="19" t="s">
-        <v>300</v>
       </c>
       <c r="G105" s="19" t="s">
         <v>253</v>
@@ -7617,7 +7638,7 @@
         <v>138</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D106" s="19" t="s">
         <v>215</v>
@@ -7652,7 +7673,7 @@
         <v>138</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>229</v>
@@ -7687,7 +7708,7 @@
         <v>138</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D108" s="19" t="s">
         <v>229</v>
@@ -7725,13 +7746,13 @@
         <v>291</v>
       </c>
       <c r="D109" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F109" s="19" t="s">
         <v>299</v>
-      </c>
-      <c r="E109" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F109" s="19" t="s">
-        <v>300</v>
       </c>
       <c r="G109" s="19" t="s">
         <v>253</v>
@@ -7757,7 +7778,7 @@
         <v>145</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D110" s="19" t="s">
         <v>215</v>
@@ -7792,7 +7813,7 @@
         <v>145</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>229</v>
@@ -7827,7 +7848,7 @@
         <v>145</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D112" s="19" t="s">
         <v>229</v>
@@ -7862,7 +7883,7 @@
         <v>147</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D113" s="13" t="s">
         <v>215</v>
@@ -7897,10 +7918,10 @@
         <v>147</v>
       </c>
       <c r="C114" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D114" s="13" t="s">
         <v>305</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>306</v>
       </c>
       <c r="E114" s="13" t="s">
         <v>23</v>
@@ -7932,7 +7953,7 @@
         <v>150</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D115" s="13" t="s">
         <v>215</v>
@@ -7967,10 +7988,10 @@
         <v>150</v>
       </c>
       <c r="C116" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D116" s="13" t="s">
         <v>305</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>306</v>
       </c>
       <c r="E116" s="13" t="s">
         <v>23</v>
@@ -8002,7 +8023,7 @@
         <v>152</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D117" s="19" t="s">
         <v>229</v>
@@ -8037,7 +8058,7 @@
         <v>152</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D118" s="19" t="s">
         <v>218</v>
@@ -8072,7 +8093,7 @@
         <v>156</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D119" s="19" t="s">
         <v>229</v>
@@ -8107,7 +8128,7 @@
         <v>156</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D120" s="19" t="s">
         <v>218</v>
@@ -8145,13 +8166,13 @@
         <v>291</v>
       </c>
       <c r="D121" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121" s="13" t="s">
         <v>299</v>
-      </c>
-      <c r="E121" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F121" s="13" t="s">
-        <v>300</v>
       </c>
       <c r="G121" s="13" t="s">
         <v>253</v>
@@ -8177,7 +8198,7 @@
         <v>158</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>229</v>
@@ -8212,7 +8233,7 @@
         <v>158</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D123" s="13" t="s">
         <v>228</v>
@@ -8285,13 +8306,13 @@
         <v>291</v>
       </c>
       <c r="D125" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F125" s="13" t="s">
         <v>299</v>
-      </c>
-      <c r="E125" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F125" s="13" t="s">
-        <v>300</v>
       </c>
       <c r="G125" s="13" t="s">
         <v>253</v>
@@ -8317,7 +8338,7 @@
         <v>161</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>229</v>
@@ -8352,7 +8373,7 @@
         <v>161</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D127" s="13" t="s">
         <v>228</v>
@@ -8492,22 +8513,22 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" t="s">
         <v>310</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>311</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>312</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>313</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>314</v>
-      </c>
-      <c r="H1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8518,19 +8539,19 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D2">
         <v>485</v>
       </c>
       <c r="E2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>317</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>318</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -8544,19 +8565,19 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D3">
         <v>485</v>
       </c>
       <c r="E3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
         <v>317</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>318</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -8567,22 +8588,22 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" t="s">
         <v>320</v>
-      </c>
-      <c r="C4" t="s">
-        <v>321</v>
       </c>
       <c r="D4">
         <v>485</v>
       </c>
       <c r="E4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
         <v>317</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>318</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
@@ -8593,7 +8614,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>321</v>
       </c>
       <c r="C5" t="s">
         <v>322</v>
@@ -8602,7 +8623,7 @@
         <v>485</v>
       </c>
       <c r="E5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
@@ -8628,7 +8649,7 @@
         <v>485</v>
       </c>
       <c r="E6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -8654,7 +8675,7 @@
         <v>485</v>
       </c>
       <c r="E7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -8680,7 +8701,7 @@
         <v>485</v>
       </c>
       <c r="E8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -8706,7 +8727,7 @@
         <v>485</v>
       </c>
       <c r="E9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -9764,22 +9785,22 @@
         <v>173</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>401</v>
       </c>
       <c r="C51" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D51">
         <v>504</v>
       </c>
       <c r="E51" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F51" t="s">
         <v>23</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -9787,22 +9808,22 @@
         <v>176</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>405</v>
       </c>
       <c r="C52" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D52">
         <v>504</v>
       </c>
       <c r="E52" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F52" t="s">
         <v>23</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -9810,22 +9831,22 @@
         <v>178</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>407</v>
       </c>
       <c r="C53" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D53">
         <v>504</v>
       </c>
       <c r="E53" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F53" t="s">
         <v>23</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -9833,22 +9854,22 @@
         <v>180</v>
       </c>
       <c r="B54" t="s">
-        <v>181</v>
+        <v>409</v>
       </c>
       <c r="C54" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D54">
         <v>504</v>
       </c>
       <c r="E54" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F54" t="s">
         <v>23</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -9856,22 +9877,22 @@
         <v>182</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>411</v>
       </c>
       <c r="C55" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D55">
         <v>504</v>
       </c>
       <c r="E55" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F55" t="s">
         <v>23</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -9882,19 +9903,19 @@
         <v>186</v>
       </c>
       <c r="C56" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D56">
         <v>504</v>
       </c>
       <c r="E56" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F56" t="s">
         <v>23</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -9902,10 +9923,10 @@
         <v>187</v>
       </c>
       <c r="B57" t="s">
-        <v>188</v>
+        <v>414</v>
       </c>
       <c r="C57" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -9913,10 +9934,10 @@
         <v>190</v>
       </c>
       <c r="B58" t="s">
-        <v>191</v>
+        <v>416</v>
       </c>
       <c r="C58" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -9927,7 +9948,7 @@
         <v>193</v>
       </c>
       <c r="C59" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -9935,10 +9956,10 @@
         <v>194</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>419</v>
       </c>
       <c r="C60" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -9949,7 +9970,7 @@
         <v>197</v>
       </c>
       <c r="C61" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -9960,7 +9981,7 @@
         <v>199</v>
       </c>
       <c r="C62" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -9995,7 +10016,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -10004,7 +10025,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -10030,7 +10051,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -10039,22 +10060,22 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/main/Timing PIDs.xlsx
+++ b/main/Timing PIDs.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24628"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30758688-EA24-4055-A883-ECC40EDA0D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49F625D3-9C76-4124-BD7F-AAC95F318414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Port information" sheetId="2" r:id="rId2"/>
-    <sheet name="Internal" sheetId="5" r:id="rId3"/>
-    <sheet name="Unsupported Features" sheetId="4" r:id="rId4"/>
-    <sheet name="Supported features" sheetId="3" r:id="rId5"/>
+    <sheet name="Features" sheetId="3" r:id="rId3"/>
+    <sheet name="Internal" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="430">
   <si>
     <t>Platform</t>
   </si>
@@ -971,6 +970,30 @@
     <t>4-19</t>
   </si>
   <si>
+    <t>APTS</t>
+  </si>
+  <si>
+    <t>Multi profile</t>
+  </si>
+  <si>
+    <t>Delay asymmetry</t>
+  </si>
+  <si>
+    <t>EsyncE</t>
+  </si>
+  <si>
+    <t>Peyto SE (ctemp)</t>
+  </si>
+  <si>
+    <t>Feature supported</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>Not Supported</t>
+  </si>
+  <si>
     <t>Software board type</t>
   </si>
   <si>
@@ -1005,9 +1028,6 @@
   </si>
   <si>
     <t>BOARD_TYPE_TURIN_CR_MACSEC_RP</t>
-  </si>
-  <si>
-    <t>Peyto SE (ctemp)</t>
   </si>
   <si>
     <t>BOARD_TYPE_PEYTO_RP</t>
@@ -1345,33 +1365,12 @@
   <si>
     <t>BOARD_TYPE_NCS5700_CASTLEBLACK</t>
   </si>
-  <si>
-    <t>Unsupported feature</t>
-  </si>
-  <si>
-    <t>Planned release</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Supported from</t>
-  </si>
-  <si>
-    <t>Virtual PTP port, APTS</t>
-  </si>
-  <si>
-    <t>Breakout support</t>
-  </si>
-  <si>
-    <t>UDPv4 checksum</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1467,8 +1466,20 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1487,6 +1498,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1501,7 +1524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1533,6 +1556,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1851,8 +1878,8 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4034,8 +4061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7635802-E9E9-4235-BCFB-1C386086C1FB}">
   <dimension ref="A1:M143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
@@ -8486,6 +8513,375 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7115B15D-08AC-49B7-8455-F14D867C9D28}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6B73FA-40F3-4B3A-B393-63F2CF74D89D}">
   <dimension ref="A1:J62"/>
   <sheetViews>
@@ -8513,22 +8909,22 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="E1" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F1" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="G1" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="H1" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8539,19 +8935,19 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D2">
         <v>485</v>
       </c>
       <c r="E2" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -8565,19 +8961,19 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D3">
         <v>485</v>
       </c>
       <c r="E3" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -8588,22 +8984,22 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C4" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D4">
         <v>485</v>
       </c>
       <c r="E4" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
@@ -8614,22 +9010,22 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C5" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="D5">
         <v>485</v>
       </c>
       <c r="E5" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -8640,22 +9036,22 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C6" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D6">
         <v>485</v>
       </c>
       <c r="E6" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -8666,22 +9062,22 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D7">
         <v>485</v>
       </c>
       <c r="E7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -8692,22 +9088,22 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C8" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="D8">
         <v>485</v>
       </c>
       <c r="E8" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
@@ -8718,22 +9114,22 @@
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C9" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="D9">
         <v>485</v>
       </c>
       <c r="E9" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
@@ -8747,19 +9143,19 @@
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="D10">
         <v>485</v>
       </c>
       <c r="E10" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
@@ -8770,22 +9166,22 @@
         <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C11" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="D11">
         <v>485</v>
       </c>
       <c r="E11" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
@@ -8799,19 +9195,19 @@
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D12">
         <v>485</v>
       </c>
       <c r="E12" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
@@ -8825,19 +9221,19 @@
         <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="D13">
         <v>485</v>
       </c>
       <c r="E13" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H13" t="s">
         <v>23</v>
@@ -8851,19 +9247,19 @@
         <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="D14">
         <v>485</v>
       </c>
       <c r="E14" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="H14" t="s">
         <v>23</v>
@@ -8878,19 +9274,19 @@
         <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="D15">
         <v>504</v>
       </c>
       <c r="E15" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="F15" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="H15" t="s">
         <v>23</v>
@@ -8905,13 +9301,13 @@
         <v>249</v>
       </c>
       <c r="C16" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D16">
         <v>485</v>
       </c>
       <c r="E16" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
@@ -8928,16 +9324,16 @@
         <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C17" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="D17">
         <v>485</v>
       </c>
       <c r="E17" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -8954,16 +9350,16 @@
         <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C18" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="D18">
         <v>485</v>
       </c>
       <c r="E18" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
@@ -8980,16 +9376,16 @@
         <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D19">
         <v>485</v>
       </c>
       <c r="E19" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
@@ -9006,22 +9402,22 @@
         <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C20" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D20">
         <v>504</v>
       </c>
       <c r="E20" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F20" t="s">
         <v>23</v>
       </c>
       <c r="G20" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H20" t="s">
         <v>23</v>
@@ -9032,22 +9428,22 @@
         <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C21" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D21">
         <v>504</v>
       </c>
       <c r="E21" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F21" t="s">
         <v>23</v>
       </c>
       <c r="G21" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H21" t="s">
         <v>23</v>
@@ -9055,13 +9451,13 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="5" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B22" t="s">
         <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -9073,7 +9469,7 @@
         <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="H22" t="s">
         <v>23</v>
@@ -9087,7 +9483,7 @@
         <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -9099,7 +9495,7 @@
         <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H23" t="s">
         <v>23</v>
@@ -9113,7 +9509,7 @@
         <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -9125,7 +9521,7 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H24" t="s">
         <v>23</v>
@@ -9139,7 +9535,7 @@
         <v>95</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
@@ -9151,7 +9547,7 @@
         <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H25" t="s">
         <v>23</v>
@@ -9162,10 +9558,10 @@
         <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
@@ -9177,7 +9573,7 @@
         <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H26" t="s">
         <v>23</v>
@@ -9188,10 +9584,10 @@
         <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
@@ -9203,7 +9599,7 @@
         <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H27" t="s">
         <v>23</v>
@@ -9217,22 +9613,22 @@
         <v>105</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>377</v>
+      </c>
+      <c r="F28" t="s">
+        <v>351</v>
+      </c>
+      <c r="G28" t="s">
         <v>369</v>
       </c>
-      <c r="D28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" t="s">
-        <v>370</v>
-      </c>
-      <c r="F28" t="s">
-        <v>344</v>
-      </c>
-      <c r="G28" t="s">
-        <v>362</v>
-      </c>
       <c r="H28" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -9249,16 +9645,16 @@
         <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F29" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="G29" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H29" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -9269,22 +9665,22 @@
         <v>111</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F30" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="G30" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H30" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -9295,22 +9691,22 @@
         <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D31" t="s">
         <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F31" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="G31" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H31" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -9321,22 +9717,22 @@
         <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="D32" t="s">
         <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F32" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="G32" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H32" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -9347,7 +9743,7 @@
         <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D33" t="s">
         <v>23</v>
@@ -9373,7 +9769,7 @@
         <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D34" t="s">
         <v>23</v>
@@ -9399,7 +9795,7 @@
         <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
@@ -9425,7 +9821,7 @@
         <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
@@ -9451,7 +9847,7 @@
         <v>127</v>
       </c>
       <c r="C37" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D37" t="s">
         <v>23</v>
@@ -9477,7 +9873,7 @@
         <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
@@ -9526,22 +9922,22 @@
         <v>137</v>
       </c>
       <c r="B40" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C40" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D40">
         <v>504</v>
       </c>
       <c r="E40" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F40" t="s">
         <v>23</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="H40" t="s">
         <v>23</v>
@@ -9552,22 +9948,22 @@
         <v>144</v>
       </c>
       <c r="B41" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C41" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D41">
         <v>504</v>
       </c>
       <c r="E41" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F41" t="s">
         <v>23</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="H41" t="s">
         <v>23</v>
@@ -9578,22 +9974,22 @@
         <v>146</v>
       </c>
       <c r="B42" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C42" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D42">
         <v>504</v>
       </c>
       <c r="E42" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F42" t="s">
         <v>23</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="H42" t="s">
         <v>23</v>
@@ -9604,22 +10000,22 @@
         <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C43" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="D43">
         <v>504</v>
       </c>
       <c r="E43" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F43" t="s">
         <v>23</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="H43" t="s">
         <v>23</v>
@@ -9630,22 +10026,22 @@
         <v>151</v>
       </c>
       <c r="B44" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C44" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="D44">
         <v>504</v>
       </c>
       <c r="E44" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F44" t="s">
         <v>23</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="H44" t="s">
         <v>23</v>
@@ -9656,22 +10052,22 @@
         <v>155</v>
       </c>
       <c r="B45" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C45" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="D45">
         <v>504</v>
       </c>
       <c r="E45" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F45" t="s">
         <v>23</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="H45" t="s">
         <v>23</v>
@@ -9682,22 +10078,22 @@
         <v>157</v>
       </c>
       <c r="B46" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C46" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D46">
         <v>504</v>
       </c>
       <c r="E46" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F46" t="s">
         <v>23</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="H46" t="s">
         <v>23</v>
@@ -9708,22 +10104,22 @@
         <v>160</v>
       </c>
       <c r="B47" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C47" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D47">
         <v>504</v>
       </c>
       <c r="E47" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F47" t="s">
         <v>23</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="H47" t="s">
         <v>23</v>
@@ -9737,7 +10133,7 @@
         <v>165</v>
       </c>
       <c r="C48" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D48">
         <v>504</v>
@@ -9754,7 +10150,7 @@
         <v>167</v>
       </c>
       <c r="C49" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="D49">
         <v>504</v>
@@ -9771,7 +10167,7 @@
         <v>170</v>
       </c>
       <c r="C50" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D50">
         <v>504</v>
@@ -9785,22 +10181,22 @@
         <v>173</v>
       </c>
       <c r="B51" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C51" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D51">
         <v>504</v>
       </c>
       <c r="E51" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="F51" t="s">
         <v>23</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -9808,22 +10204,22 @@
         <v>176</v>
       </c>
       <c r="B52" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C52" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="D52">
         <v>504</v>
       </c>
       <c r="E52" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="F52" t="s">
         <v>23</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -9831,22 +10227,22 @@
         <v>178</v>
       </c>
       <c r="B53" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C53" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D53">
         <v>504</v>
       </c>
       <c r="E53" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="F53" t="s">
         <v>23</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -9854,22 +10250,22 @@
         <v>180</v>
       </c>
       <c r="B54" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C54" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D54">
         <v>504</v>
       </c>
       <c r="E54" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="F54" t="s">
         <v>23</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -9877,22 +10273,22 @@
         <v>182</v>
       </c>
       <c r="B55" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C55" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="D55">
         <v>504</v>
       </c>
       <c r="E55" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="F55" t="s">
         <v>23</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -9903,19 +10299,19 @@
         <v>186</v>
       </c>
       <c r="C56" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="D56">
         <v>504</v>
       </c>
       <c r="E56" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="F56" t="s">
         <v>23</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -9923,10 +10319,10 @@
         <v>187</v>
       </c>
       <c r="B57" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="C57" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -9934,10 +10330,10 @@
         <v>190</v>
       </c>
       <c r="B58" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="C58" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -9948,7 +10344,7 @@
         <v>193</v>
       </c>
       <c r="C59" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -9956,10 +10352,10 @@
         <v>194</v>
       </c>
       <c r="B60" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C60" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -9970,7 +10366,7 @@
         <v>197</v>
       </c>
       <c r="C61" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -9981,7 +10377,7 @@
         <v>199</v>
       </c>
       <c r="C62" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -9996,89 +10392,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD93973-BF4A-45DB-90D9-8DDA452B14A8}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7115B15D-08AC-49B7-8455-F14D867C9D28}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>